--- a/medicine/Mort/Cimetière_Saint-Martin_de_Miribel/Cimetière_Saint-Martin_de_Miribel.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Martin_de_Miribel/Cimetière_Saint-Martin_de_Miribel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Martin_de_Miribel</t>
+          <t>Cimetière_Saint-Martin_de_Miribel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Martin de Miribel est un cimetière situé dans le quartier de Saint-Martin à Miribel dans l'Ain en France. L'église Saint-Martin, classée au titre des monuments historiques, se trouve dans ce cimetière.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Martin_de_Miribel</t>
+          <t>Cimetière_Saint-Martin_de_Miribel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière donne sur plusieurs voies de Miribel : la place Saint-Martin, la rue de Saint-Martin, la rue de Trève et l'avenue Saint-Maurice. Il a son entrée principale place Saint-Martin et son entrée secondaire avenue Saint-Maurice[1].
-Il s'étend sur 1,25 hectare[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière donne sur plusieurs voies de Miribel : la place Saint-Martin, la rue de Saint-Martin, la rue de Trève et l'avenue Saint-Maurice. Il a son entrée principale place Saint-Martin et son entrée secondaire avenue Saint-Maurice.
+Il s'étend sur 1,25 hectare.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Martin_de_Miribel</t>
+          <t>Cimetière_Saint-Martin_de_Miribel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présence d'un cimetière à cet emplacement remonte au moins au Moyen Âge avec probablement une évolution du périmètre ; ainsi des ossements ont été exhumés dans les années 1990 sous la toute proche Place Saint-Martin[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence d'un cimetière à cet emplacement remonte au moins au Moyen Âge avec probablement une évolution du périmètre ; ainsi des ossements ont été exhumés dans les années 1990 sous la toute proche Place Saint-Martin.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Martin_de_Miribel</t>
+          <t>Cimetière_Saint-Martin_de_Miribel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,16 +590,18 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs personnalités sont inhumées dans le cimetière Saint-Martin[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs personnalités sont inhumées dans le cimetière Saint-Martin,.
 Lucien Agnel (1892-1975), imprimeur et résistant français.
-Jean-Marie Degoutte (1866-1938), général français, enterré dans le caveau familial de son épouse Éléonore Peguet et de son beau-père Pierre Peguet, ancien maire de Miribel. Ses obsèques se sont déroulées le 3 novembre 1938 en présence du général Alphonse Georges[5]. Le général Degoutte a légué 10 000 francs à la commune de Miribel pour l'entretien à perpétuité du caveau[5].
+Jean-Marie Degoutte (1866-1938), général français, enterré dans le caveau familial de son épouse Éléonore Peguet et de son beau-père Pierre Peguet, ancien maire de Miribel. Ses obsèques se sont déroulées le 3 novembre 1938 en présence du général Alphonse Georges. Le général Degoutte a légué 10 000 francs à la commune de Miribel pour l'entretien à perpétuité du caveau.
 Henri Deschamps (1899-1968), résistant français.
-Jacques Dumesnil (1903-1998), acteur français. Sa sœur Odette Joly, dont le nom a été donné à une des écoles de la commune, était enseignante à Miribel. Jacques Dumesnil a vécu auprès d'elle à la fin de sa vie[6].
+Jacques Dumesnil (1903-1998), acteur français. Sa sœur Odette Joly, dont le nom a été donné à une des écoles de la commune, était enseignante à Miribel. Jacques Dumesnil a vécu auprès d'elle à la fin de sa vie.
 Joséphine Guillon (1819-1913), philanthrope française à l'origine de la création de l'institution qui porte son nom.
 Henri Grobon (1822-1893), industriel et ancien maire de Miribel.
-Jacques Soustelle (1912-1990, homme politique, gouverneur de l'Algérie, et académicien français. Sa mère, née Massonnet (décès en 1985) est enterrée dans le cimetière Saint-Martin[7].
+Jacques Soustelle (1912-1990, homme politique, gouverneur de l'Algérie, et académicien français. Sa mère, née Massonnet (décès en 1985) est enterrée dans le cimetière Saint-Martin.
 L'ethnologue Georgette Soustelle (1909-1999), spécialiste du Mexique est enterrée avec son mari Jacques Soustelle.
 			Lucien Agnel.
 			Jean-Marie Degoutte.
@@ -592,13 +610,83 @@
 			Henri Grobon.
 			Jacques et Georgette Soustelle.
 			Joséphine Guillon.
-Personnalités locales
-Outre Henri Grobon et Pierre Peguet, plusieurs maires de Miribel sont enterrés au cimetière Saint-Martin : c'est le cas de Pétrus Besson (1890-1959), Léon Tabourin, Jean Meiffre (1908-1996), Léon Drivot (1883-1970), Louis Berthet (1868-1934) et Pierre Coqui (1863-1928)[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Martin_de_Miribel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Martin_de_Miribel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnalités locales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre Henri Grobon et Pierre Peguet, plusieurs maires de Miribel sont enterrés au cimetière Saint-Martin : c'est le cas de Pétrus Besson (1890-1959), Léon Tabourin, Jean Meiffre (1908-1996), Léon Drivot (1883-1970), Louis Berthet (1868-1934) et Pierre Coqui (1863-1928).
 Jean-Claude Ego qui a donné son nom (avec son frère Jean-Louis) au square Ego est également enterré à Miribel.
 Marie Lacroix (1884-1963), Juste parmi les Nations est inhumée dans le cimetière dans la même tombe que l'ancien maire Louis Berthet.
 Signalons également la sépulture d'Henri Berger (1889-1946), médecin, maire de Montmerle-sur-Saône et conseiller général du canton de Thoissey.
-Conflits mondiaux
-Un monument dit Monument FFI est inauguré le 12 novembre 1952[8]. Vingt-quatre noms y sont inscrits, la plupart ceux de combattants du Camp Didier et dont plusieurs sont enterrés à proximité dans le cimetière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Martin_de_Miribel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Martin_de_Miribel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conflits mondiaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un monument dit Monument FFI est inauguré le 12 novembre 1952. Vingt-quatre noms y sont inscrits, la plupart ceux de combattants du Camp Didier et dont plusieurs sont enterrés à proximité dans le cimetière.
 Les noms inscrits sur le monument FFI
 Claudius Hutt
 Henri Michel
@@ -625,7 +713,7 @@
 Léon Vacher
 Auguste Venet
 Monument FFI sur Commons
-Un monument aux morts de la Première Guerre mondiale est inauguré en 1922 et comprend 108 noms[8]. Des hommages y ont régulièrement lieu notamment le 11 novembre[9].
+Un monument aux morts de la Première Guerre mondiale est inauguré en 1922 et comprend 108 noms. Des hommages y ont régulièrement lieu notamment le 11 novembre.
 </t>
         </is>
       </c>
